--- a/data/trans_camb/P57_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P57_R-Habitat-trans_camb.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>-3.062079255490552</v>
+        <v>-3.062079255490557</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>-4.752568918304314</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-3.849885934069825</v>
+        <v>-3.849885934069827</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.892276661448989</v>
+        <v>-6.93376770417429</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-9.134674185455875</v>
+        <v>-8.905291457053444</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-6.701039852321111</v>
+        <v>-6.598103938328924</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9001518273493023</v>
+        <v>1.29940807926871</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.9507080894173378</v>
+        <v>-0.9876826646670066</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.9532838419102195</v>
+        <v>-0.8238522876059645</v>
       </c>
     </row>
     <row r="7">
@@ -615,13 +615,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>-0.1618444765777358</v>
+        <v>-0.1618444765777362</v>
       </c>
       <c r="D7" s="6" t="n">
         <v>-0.1974456329413415</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.179139159257779</v>
+        <v>-0.1791391592577791</v>
       </c>
     </row>
     <row r="8">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3246149277332319</v>
+        <v>-0.3308860594514849</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3379635055613381</v>
+        <v>-0.3328548884351471</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2873610809980799</v>
+        <v>-0.2871331021117388</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.05568181927676802</v>
+        <v>0.07848451903674213</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.03592935491494378</v>
+        <v>-0.05002261000292213</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.04843325761332302</v>
+        <v>-0.04883763135408859</v>
       </c>
     </row>
     <row r="10">
@@ -676,7 +676,7 @@
         <v>-6.4415622984068</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-7.227474123625524</v>
+        <v>-7.227474123625527</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-11.52947899369872</v>
+        <v>-11.095185775425</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-9.939014046499882</v>
+        <v>-9.857076172169398</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-9.598035207740368</v>
+        <v>-9.511839881265326</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-4.976141706394747</v>
+        <v>-4.635995574344925</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-3.176689754981384</v>
+        <v>-3.02134586332718</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-5.000121774369651</v>
+        <v>-4.724870674065341</v>
       </c>
     </row>
     <row r="13">
@@ -727,7 +727,7 @@
         <v>-0.2708740930563229</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.3291190761782213</v>
+        <v>-0.3291190761782214</v>
       </c>
     </row>
     <row r="14">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5194941936166305</v>
+        <v>-0.5087018538150185</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3822289658677491</v>
+        <v>-0.3769707577630991</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4075288269418394</v>
+        <v>-0.4089190661592911</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.2645882454626559</v>
+        <v>-0.2489879598824337</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.1442980279675344</v>
+        <v>-0.1398143615305182</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.2402061874326503</v>
+        <v>-0.2325387433082695</v>
       </c>
     </row>
     <row r="16">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-11.66587306984485</v>
+        <v>-12.21342513270442</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-12.91494206434818</v>
+        <v>-12.64255751540027</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-11.36501235544591</v>
+        <v>-11.29945035651789</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-4.812202710776078</v>
+        <v>-4.789760728513198</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-6.06990006228479</v>
+        <v>-5.733930156463072</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-6.279141122398165</v>
+        <v>-6.3024526815407</v>
       </c>
     </row>
     <row r="19">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.597376266030276</v>
+        <v>-0.6105182032481364</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.595833561667417</v>
+        <v>-0.5874074778890738</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.5678643565842761</v>
+        <v>-0.5669693950883482</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.3042687375586101</v>
+        <v>-0.2918387542607035</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.3466181005656989</v>
+        <v>-0.3226598010417627</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.3641555890210758</v>
+        <v>-0.3642091498983168</v>
       </c>
     </row>
     <row r="22">
@@ -885,10 +885,10 @@
         <v>-0.8379641352253747</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>-4.679390658699701</v>
+        <v>-4.679390658699706</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-2.847371899202683</v>
+        <v>-2.847371899202689</v>
       </c>
     </row>
     <row r="23">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.19301913672265</v>
+        <v>-4.304713571879453</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-8.399652585395701</v>
+        <v>-8.464509416857942</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-5.209374041192207</v>
+        <v>-5.216053826281892</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.56840536845978</v>
+        <v>2.40685200088716</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-1.350852684988162</v>
+        <v>-1.337436322454234</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.08133061157186174</v>
+        <v>-0.3699972480360454</v>
       </c>
     </row>
     <row r="25">
@@ -936,10 +936,10 @@
         <v>-0.0479521202114564</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>-0.1819068103697303</v>
+        <v>-0.1819068103697306</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.1304867905921435</v>
+        <v>-0.1304867905921437</v>
       </c>
     </row>
     <row r="26">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2158208177674433</v>
+        <v>-0.220146695605247</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2974880596655676</v>
+        <v>-0.307433089528768</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2273860976936519</v>
+        <v>-0.2277664499661882</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1599582039589475</v>
+        <v>0.1606470641785818</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.05728610202379357</v>
+        <v>-0.06002565357471328</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.004091725525894896</v>
+        <v>-0.01879030609686869</v>
       </c>
     </row>
     <row r="28">
@@ -991,10 +991,10 @@
         <v>-5.122668540195255</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>-6.175188067112561</v>
+        <v>-6.175188067112558</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-5.650301751988457</v>
+        <v>-5.650301751988454</v>
       </c>
     </row>
     <row r="29">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-7.018043121369602</v>
+        <v>-6.899821655173303</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-7.999037875291302</v>
+        <v>-7.970715411822502</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-6.936255734009094</v>
+        <v>-6.875942366048174</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-3.348223306718327</v>
+        <v>-3.27194112580638</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-4.442741291244319</v>
+        <v>-4.426875160246708</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-4.530428322653404</v>
+        <v>-4.338153619713433</v>
       </c>
     </row>
     <row r="31">
@@ -1042,10 +1042,10 @@
         <v>-0.2766102295085868</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>-0.2631551724934517</v>
+        <v>-0.2631551724934516</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.268480808787009</v>
+        <v>-0.2684808087870089</v>
       </c>
     </row>
     <row r="32">
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.3564808188736405</v>
+        <v>-0.3534834662968328</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3249140815589721</v>
+        <v>-0.3267519987808269</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.3193139738026058</v>
+        <v>-0.3174668131469693</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.1897717260031792</v>
+        <v>-0.1865903772393836</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.1964622554162805</v>
+        <v>-0.1965157066823114</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.222729234033664</v>
+        <v>-0.2150297491271899</v>
       </c>
     </row>
     <row r="34">
